--- a/line.xlsx
+++ b/line.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C293"/>
+  <dimension ref="A1:C458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,34 +544,34 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>【饗賓餐旅集團】500元喜客券(適用：饗食天堂/果然匯/開飯川食堂/饗泰多)</t>
+          <t>[彩蛋驚喜]【路易莎咖啡】大杯精選英式紅茶拿鐵(兌換冰熱任選)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$500</t>
+          <t>$75</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[彩蛋驚喜]【路易莎咖啡】大杯精選英式紅茶拿鐵(兌換冰熱任選)</t>
+          <t>【饗賓餐旅集團】500元喜客券(適用：饗食天堂/果然匯/開飯川食堂/饗泰多)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>$500</t>
         </is>
       </c>
     </row>
@@ -595,34 +595,34 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[彩蛋驚喜]【路易莎咖啡】大杯經典水果茶(兌換冰)</t>
+          <t>【COLD STONE】享受夏天吧~</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$60</t>
+          <t>$190</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>【COLD STONE】享受夏天吧~</t>
+          <t>[彩蛋驚喜]【路易莎咖啡】大杯經典水果茶(兌換冰)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$190</t>
+          <t>$60</t>
         </is>
       </c>
     </row>
@@ -697,17 +697,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>【Lady M】270元切片蛋糕兌換券(限台北旗艦、遠百信義及遠百竹北門市外帶)</t>
+          <t>[彩蛋驚喜]【路易莎咖啡】中杯義式巧克力冰沙</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$270</t>
+          <t>$60</t>
         </is>
       </c>
     </row>
@@ -719,46 +719,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[彩蛋驚喜]【路易莎咖啡】中杯義式巧克力冰沙</t>
+          <t>【多那之咖啡】可可雲階+小農原味拿鐵</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$60</t>
+          <t>$165</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>【多那之咖啡】可可雲階+小農原味拿鐵</t>
+          <t>【Lady M】270元切片蛋糕兌換券(限台北旗艦、遠百信義及遠百竹北門市外帶)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$165</t>
+          <t>$270</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>【多那之咖啡】漫步森林 +皇室經典奶茶(大)</t>
+          <t xml:space="preserve">生日禮物【Häagen-Dazs哈根達斯】甜蜜下午茶組 喜客券 (杯裝雙球冰淇淋+$150元飲品) </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$154</t>
+          <t>$350</t>
         </is>
       </c>
     </row>
@@ -770,24 +770,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[愛禮無極限]【COLD STONE】分享甜甜的心意！</t>
+          <t>【多那之咖啡】漫步森林 +皇室經典奶茶(大)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$350</t>
+          <t>$154</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">生日禮物【Häagen-Dazs哈根達斯】甜蜜下午茶組 喜客券 (杯裝雙球冰淇淋+$150元飲品) </t>
+          <t>[愛禮無極限]【COLD STONE】分享甜甜的心意！</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -816,34 +816,34 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>【多那之咖啡】提拉米蘇 +紅玉紅茶</t>
+          <t>KKgift中秋禮盒｜大甲師｜芋馜鄉芋（ 8 入/盒）1 盒 (輸入序號即可宅配到府)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$125</t>
+          <t>$399</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>饗食天堂、小福利-同饗餐飲優惠套券(饗食平日下午、小福利平日午餐)22/03M</t>
+          <t>【多那之咖啡】提拉米蘇 +紅玉紅茶</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$768</t>
+          <t>$125</t>
         </is>
       </c>
     </row>
@@ -872,46 +872,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>【多那之咖啡】皇室經典奶茶（大杯）</t>
+          <t>饗食天堂、小福利-同饗餐飲優惠套券(饗食平日下午、小福利平日午餐)22/03M</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>$768</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>【Mister Donut】蜂蜜檸檬季套餐組(4入甜甜圈+2個飲料)即享券</t>
+          <t>【多那之咖啡】皇室經典奶茶（大杯）</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$288</t>
+          <t>$75</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>KKgift中秋禮盒｜大甲師｜芋馜鄉芋（ 8 入/盒）1 盒 (輸入序號即可宅配到府)</t>
+          <t>【Mister Donut】蜂蜜檸檬季套餐組(4入甜甜圈+2個飲料)即享券</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$399</t>
+          <t>$288</t>
         </is>
       </c>
     </row>
@@ -935,17 +935,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>KKgift｜Sheryl's Recipe 嗜甜女子｜迷你可麗露＆法式手作可麗露禮盒(輸入序號即可宅配到府)</t>
+          <t>【福勝亭】開運豬排定食 喜客券</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$630</t>
+          <t>$190</t>
         </is>
       </c>
     </row>
@@ -969,85 +969,85 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>【COLD STONE】 來個療癒系午茶約會吧！</t>
+          <t>【Häagen-Dazs哈根達斯】雙人下午茶套餐(內用) 喜客券</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$195</t>
+          <t>$799</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】雙人下午茶套餐(內用) 喜客券</t>
+          <t>KKgift｜Sheryl's Recipe 嗜甜女子｜迷你可麗露＆法式手作可麗露禮盒(輸入序號即可宅配到府)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$799</t>
+          <t>$630</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>【多那之咖啡】乳酪蛋糕+小農原味拿鐵</t>
+          <t>【指舞春秋&amp;指舞小春秋】低頭族饗宴 45分鐘頭肩頸按摩</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$145</t>
+          <t>$699</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>【指舞春秋&amp;指舞小春秋】低頭族饗宴 45分鐘頭肩頸按摩</t>
+          <t>【三商巧福】原汁牛肉麵 喜客券</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$699</t>
+          <t>$135</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>【福勝亭】開運豬排定食 喜客券</t>
+          <t>【GODIVA】冰飲品兌換卷 ( 限雙北、桃園地區門市兌換)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$190</t>
+          <t>$220</t>
         </is>
       </c>
     </row>
@@ -1059,46 +1059,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>【GODIVA】冰飲品兌換卷 ( 限雙北、桃園地區門市兌換)</t>
+          <t>【多那之咖啡】乳酪蛋糕+小農原味拿鐵</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$220</t>
+          <t>$145</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>【三商巧福】原汁牛肉麵 喜客券</t>
+          <t>【COLD STONE】 來個療癒系午茶約會吧！</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$135</t>
+          <t>$195</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>【COLD STONE】讓我為你加加油!</t>
+          <t>【PAUL法國麵包甜點沙龍】$500餐飲抵用券</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$99</t>
+          <t>$478</t>
         </is>
       </c>
     </row>
@@ -1110,46 +1110,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>【多那之咖啡】漫步森林+北海道乳香拿鐵(大)</t>
+          <t>【Häagen-Dazs哈根達斯】夏日風情 創意盤餐(內用) 喜客券</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$169</t>
+          <t>$385</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】夏日風情 創意盤餐(內用) 喜客券</t>
+          <t>【Häagen-Dazs哈根達斯】冰淇淋迷你杯(外帶) 喜客券</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$385</t>
+          <t>$115</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>【起士公爵】純粹原味乳酪蛋糕(4吋)</t>
+          <t>【八月堂】現金抵用券300元</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$450</t>
+          <t>$300</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>【起士公爵】80厚藏生巧克力(1入)</t>
+          <t>【瓦城泰國料理】 1000元 美食抵用券</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$380</t>
+          <t>$1,000</t>
         </is>
       </c>
     </row>
@@ -1178,29 +1178,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>【多那之咖啡】香檸芒果+紅玉紅茶</t>
+          <t>【多那之咖啡】漫步森林+北海道乳香拿鐵(大)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$139</t>
+          <t>$169</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】冰淇淋迷你杯(外帶) 喜客券</t>
+          <t>【85度C】琥珀蛋黃酥禮盒即享券</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$115</t>
+          <t>$480</t>
         </is>
       </c>
     </row>
@@ -1212,29 +1212,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>【多那之咖啡】北海道乳香拿鐵（大杯）</t>
+          <t>【梁社漢】 厚切香酥排骨飯精緻套餐 喜客券</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$90</t>
+          <t>$160</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>【三商巧福】原汁牛肉麵 喜客券（3碗/1組，限最低購買數為3）</t>
+          <t>【指舞春秋&amp;指舞小春秋】解放雙腿 45分鐘腳底反射按摩</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$135</t>
+          <t>$699</t>
         </is>
       </c>
     </row>
@@ -1246,46 +1246,46 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>【85度C】琥珀蛋黃酥禮盒即享券</t>
+          <t>【COLD STONE】 Happy Birthday!</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$480</t>
+          <t>$1,330</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>【多那之咖啡】乳酪蛋糕</t>
+          <t>【起士公爵】80厚藏生巧克力(1入)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$70</t>
+          <t>$380</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>【瓦城泰國料理】 1000元 美食抵用券</t>
+          <t>【Buty99】 《全台》200分鐘 古希臘祕技!頂級晶鑽琥珀精油手舞紓壓纖體SPA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$1,000</t>
+          <t>$799</t>
         </is>
       </c>
     </row>
@@ -1297,46 +1297,46 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>【梁社漢】 厚切香酥排骨飯精緻套餐 喜客券</t>
+          <t>【多那之咖啡】北海道乳香拿鐵（大杯）</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$160</t>
+          <t>$90</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>【八月堂】現金抵用券300元</t>
+          <t>【多那之咖啡】乳酪蛋糕</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$300</t>
+          <t>$70</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>【指舞春秋&amp;指舞小春秋】解放雙腿 45分鐘腳底反射按摩</t>
+          <t>【三商巧福】紅燒排骨飯 喜客券</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$699</t>
+          <t>$115</t>
         </is>
       </c>
     </row>
@@ -1348,46 +1348,46 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>【COLD STONE】 Happy Birthday!</t>
+          <t>【起士公爵 星座限定】處女座(08/23-09/22)‧生日快樂乳酪蛋糕 6吋  (純粹原味乳酪蛋糕+處女座專屬祝福賀圖)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$1,330</t>
+          <t>$670</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>【起士公爵 星座限定】處女座(08/23-09/22)‧生日快樂乳酪蛋糕 6吋  (純粹原味乳酪蛋糕+處女座專屬祝福賀圖)</t>
+          <t>【三商巧福】原汁牛肉麵 喜客券（3碗/1組，限最低購買數為3）</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$670</t>
+          <t>$135</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[限時8%回饋]【雲朗觀光】1000元住宿即享券 (一次抵用型；一次限用一張)</t>
+          <t>【85度C】鳳梨酥禮盒禮盒即享券</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$1,000</t>
+          <t>$320</t>
         </is>
       </c>
     </row>
@@ -1399,80 +1399,80 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>【梁社漢】 香酥雞腿飯精緻套餐 喜客券</t>
+          <t>【COLD STONE】 享受個人的時光吧！</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$160</t>
+          <t>$195</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>【梁社漢】 滷排骨飯精緻套餐 喜客券</t>
+          <t>【起士公爵】純粹原味乳酪蛋糕(4吋)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$160</t>
+          <t>$450</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>【Buty99】 《全台》200分鐘 古希臘祕技!頂級晶鑽琥珀精油手舞紓壓纖體SPA</t>
+          <t>【瓦城泰國料理】 2000元 美食抵用券</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$799</t>
+          <t>$2,000</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>【COLD STONE】 享受個人的時光吧！</t>
+          <t>【COLD STONE】讓我為你加加油!</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$195</t>
+          <t>$99</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>【多那之咖啡】提拉米蘇</t>
+          <t>【85度C】邀月品秋禮盒即享券</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>$450</t>
         </is>
       </c>
     </row>
@@ -1484,80 +1484,80 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>【瓦城泰國料理】 2000元 美食抵用券</t>
+          <t>【Häagen-Dazs哈根達斯】(外帶)櫻桃黑莓戀曲冰淇淋凍飲即享券</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$2,000</t>
+          <t>$295</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>【PAUL法國麵包甜點沙龍】$500餐飲抵用券</t>
+          <t>【八月堂】現金抵用券200元</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$478</t>
+          <t>$200</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>【燒肉眾一代店/燒肉眾二代目/鹿兒島燒肉/燒肉哦爺】1000元通用券$979 享樂券</t>
+          <t>【多那之咖啡】提拉米蘇</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$979</t>
+          <t>$75</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>【85度C】邀月品秋禮盒即享券</t>
+          <t>【福勝亭】開運卡滋豬排丼定食 喜客券</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$450</t>
+          <t>$230</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>【八月堂】現金抵用券200元</t>
+          <t>有點秋食物工作室｜【莓果控最愛】 10入達克瓦滋 禮盒 (輸入序號即可宅配到府)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$200</t>
+          <t>$860</t>
         </is>
       </c>
     </row>
@@ -1569,12 +1569,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>【八月堂】現金抵用券100元</t>
+          <t>【燒肉眾一代店/燒肉眾二代目/鹿兒島燒肉/燒肉哦爺】500元通用券$495 享樂券</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$100</t>
+          <t>$495</t>
         </is>
       </c>
     </row>
@@ -1586,12 +1586,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>【福勝亭】開運卡滋豬排丼定食 喜客券</t>
+          <t>[限時兌換1+1]【八月堂】360元現金抵用券 票券期限內兌換後再贈49元可頌即享券(二入)(限量)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$230</t>
+          <t>$360</t>
         </is>
       </c>
     </row>
@@ -1603,46 +1603,46 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>【燒肉眾一代店/燒肉眾二代目/鹿兒島燒肉/燒肉哦爺】500元通用券$495 享樂券</t>
+          <t>【三商巧福】清燉牛肉麵 喜客券</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$495</t>
+          <t>$135</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(外帶)櫻桃黑莓戀曲冰淇淋凍飲即享券</t>
+          <t>【梁社漢】 滷排骨飯精緻套餐 喜客券</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$295</t>
+          <t>$160</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>【多那之咖啡】黑森林5吋蛋糕</t>
+          <t>【Buty99】 《北南部》100分鐘 專業男女沙龍級保養 全身能量放鬆+潤白臉部護理2選1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$480</t>
+          <t>$550</t>
         </is>
       </c>
     </row>
@@ -1654,63 +1654,63 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>KKgift｜Sheryls Recipe 嗜甜女子｜療癒可達甜點組合 (輸入序號即可宅配到府)</t>
+          <t>【多那之咖啡】黑森林5吋蛋糕</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$630</t>
+          <t>$480</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[限時兌換1+1]【八月堂】360元現金抵用券 票券期限內兌換後再贈49元可頌即享券(二入)(限量)</t>
+          <t>【多那之咖啡】浪漫秋戀5吋蛋糕</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$360</t>
+          <t>$480</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(外帶)西瓜美莓冰淇淋凍飲即享券</t>
+          <t>【福勝亭】和風咖哩豬排定食 喜客券</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$295</t>
+          <t>$210</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】3.5英吋冰淇淋蛋糕任選(草莓歡心/魔法奇巧/夏果仁維納斯) 喜客券</t>
+          <t>【起士公爵】天使親吻輕乳酪蛋糕(6吋)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$1,280</t>
+          <t>$450</t>
         </is>
       </c>
     </row>
@@ -1722,131 +1722,131 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>【三商巧福】清燉牛肉麵 喜客券</t>
+          <t>【怡客咖啡】芒果冰沙買1送1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$135</t>
+          <t>$120</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>【多那之咖啡】美式咖啡(中杯)</t>
+          <t>【燒肉眾一代店/燒肉眾二代目/鹿兒島燒肉/燒肉哦爺】1000元通用券$979 享樂券</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$55</t>
+          <t>$979</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>【多那之咖啡】皇室經典奶茶（中杯）</t>
+          <t>【多那之咖啡】香檸芒果+紅玉紅茶</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$65</t>
+          <t>$139</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>【多那之咖啡】浪漫秋戀5吋蛋糕</t>
+          <t>【Häagen-Dazs哈根達斯】冰淇淋品脫杯(外帶) 喜客券</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$480</t>
+          <t>$359</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>【福勝亭】和風咖哩豬排定食 喜客券</t>
+          <t>【梁社漢】 香酥雞腿飯精緻套餐 喜客券</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$210</t>
+          <t>$160</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>【起士公爵】75皇家特濃布朗尼小小公爵(乙杯)</t>
+          <t>【聖保羅】 招牌Q餅12入禮盒 喜客券</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$150</t>
+          <t>$540</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>有點秋食物工作室｜【莓果控最愛】 10入達克瓦滋 禮盒 (輸入序號即可宅配到府)</t>
+          <t>【八月堂】極致奶油曲奇餅(綜合)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$860</t>
+          <t>$360</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>【怡客咖啡】芒果冰沙買1送1</t>
+          <t>【添好運】酥皮焗叉燒包 喜客券</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$120</t>
+          <t>$148</t>
         </is>
       </c>
     </row>
@@ -1858,114 +1858,114 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(外帶)勝利凱獻Luxury Classic 即享券</t>
+          <t>【多那之咖啡】美式咖啡(中杯)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$1,152</t>
+          <t>$55</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】巧戀蘭姆葡萄 冰淇淋凍飲(外帶) 喜客券</t>
+          <t>KKgift｜大甲師 芋頭流芯酥（ 6 入/盒）(輸入序號即可宅配到府)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$295</t>
+          <t>$335</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】寵愛自由配 迷你杯10入(外帶) 喜客券</t>
+          <t>【福勝亭】鮮嫩炸雞柳定食 喜客券</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$999</t>
+          <t>$190</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】冰淇淋品脫杯(外帶) 喜客券</t>
+          <t>【COLD STONE】美好的吃冰季！</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$359</t>
+          <t>$325</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>【梁社漢】 厚切香酥排骨飯饗樂套餐 喜客券</t>
+          <t>【Häagen-Dazs哈根達斯】3.5英吋冰淇淋蛋糕任選(草莓歡心/魔法奇巧/夏果仁維納斯) 喜客券</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$160</t>
+          <t>$1,280</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>【聖保羅】 招牌Q餅12入禮盒 喜客券</t>
+          <t>[限時8%回饋]【雲朗觀光】1000元住宿即享券 (一次抵用型；一次限用一張)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$540</t>
+          <t>$1,000</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>【八月堂】極致奶油曲奇餅(綜合)</t>
+          <t>【梁社漢】 厚切香酥排骨飯饗樂套餐 喜客券</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$360</t>
+          <t>$160</t>
         </is>
       </c>
     </row>
@@ -1977,80 +1977,80 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>【多那之咖啡】仲夏芒果冰沙（大杯）</t>
+          <t>KKgift｜下班隨手作｜星座瓶中乾燥花禮盒（含運）</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$85</t>
+          <t>$310</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>【伊莎貝爾】法式經典圓形磅蛋糕480元任選即享券</t>
+          <t>【多那之咖啡】皇室經典奶茶（中杯）</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$420</t>
+          <t>$65</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>【COLD STONE】美好的吃冰季！</t>
+          <t>【多那之咖啡】仲夏芒果冰沙（大杯）</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$325</t>
+          <t>$85</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(7吋)米奇露營趣冰淇淋蛋糕即享券</t>
+          <t>【COLD STONE】 生日大快樂！</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>$2,356</t>
+          <t>$1,420</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】雪糕(外帶) 喜客券</t>
+          <t>KKgift｜Sheryls Recipe 嗜甜女子｜療癒可達甜點組合 (輸入序號即可宅配到府)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$115</t>
+          <t>$630</t>
         </is>
       </c>
     </row>
@@ -2062,12 +2062,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>【三商巧福】紅燒排骨飯 喜客券</t>
+          <t>【起士公爵】75皇家特濃布朗尼小小公爵(乙杯)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$115</t>
+          <t>$150</t>
         </is>
       </c>
     </row>
@@ -2079,12 +2079,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>【寬心園】 $572套餐乙份 喜客券</t>
+          <t>[愛禮無極限]【COLD STONE】一起分享吧！</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$572</t>
+          <t>$180</t>
         </is>
       </c>
     </row>
@@ -2096,97 +2096,97 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>【Buty99】 《北南部》100分鐘 專業男女沙龍級保養 全身能量放鬆+潤白臉部護理2選1</t>
+          <t>【伊莎貝爾】法式經典圓形磅蛋糕480元任選即享券</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>$550</t>
+          <t>$420</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>【添好運】酥皮焗叉燒包 喜客券</t>
+          <t>【Häagen-Dazs哈根達斯】(外帶)勝利凱獻Luxury Classic 即享券</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$148</t>
+          <t>$1,152</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>【添好運】鮮蝦燒賣皇 喜客券</t>
+          <t>【Häagen-Dazs哈根達斯】(5吋)米妮甜蜜一夏冰淇淋蛋糕即享券</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>$148</t>
+          <t>$1,786</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>KKgift｜大甲師 芋頭流芯酥（ 6 入/盒）(輸入序號即可宅配到府)</t>
+          <t>【Häagen-Dazs哈根達斯】巧戀蘭姆葡萄 冰淇淋凍飲(外帶) 喜客券</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>$335</t>
+          <t>$295</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>【多那之咖啡】可可雲階</t>
+          <t>【Häagen-Dazs哈根達斯】夏威夷風情 冰淇淋凍飲(外帶) 喜客券</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>$90</t>
+          <t>$295</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>【多那之咖啡】芙妮爾5吋蛋糕</t>
+          <t>【Häagen-Dazs哈根達斯】寵愛自由配 迷你杯10入(外帶) 喜客券</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>$450</t>
+          <t>$999</t>
         </is>
       </c>
     </row>
@@ -2198,80 +2198,80 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>【福勝亭】鮮嫩炸雞柳定食 喜客券</t>
+          <t>【Häagen-Dazs哈根達斯】雪糕(外帶) 喜客券</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>$190</t>
+          <t>$115</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>【怡客咖啡】單人下午茶</t>
+          <t>【寬心園】 $572套餐乙份 喜客券</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>$160</t>
+          <t>$572</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>KKgift獨家｜有點秋食物工作室｜達克罐罐彩虹甜點組合(輸入序號即可宅配到府)</t>
+          <t>【Ｍamaway媽媽餵】1000元電子禮物卡購物券</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>$580</t>
+          <t>$1,000</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>【COLD STONE】 親愛的妳 生日快樂喔!</t>
+          <t>【八月堂】現金抵用券100元</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>$1,330</t>
+          <t>$100</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>【起士公爵】北國藍莓乳酪蛋糕(4吋)</t>
+          <t>【添好運】流沙包 喜客券</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>$590</t>
+          <t>$148</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>【起士公爵】楓糖蔓越莓小小公爵乳酪蛋糕(乙杯)</t>
+          <t>【起士公爵】朱古力圓舞曲小小公爵乳酪蛋糕(乙杯)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2295,119 +2295,119 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>【起士公爵】朱古力圓舞曲乳酪蛋糕(6吋)</t>
+          <t>【PAUL法國麵包甜點沙龍】$1000餐飲抵用券</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>$720</t>
+          <t>$945</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>【PAUL法國麵包甜點沙龍】$1000餐飲抵用券</t>
+          <t>[遠距練愛]聖保羅 富貴禮盒D 喜客券</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>$945</t>
+          <t>$495</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[遠距練愛]聖保羅 富貴禮盒D 喜客券</t>
+          <t>【Häagen-Dazs哈根達斯】(外帶)童享皮克斯系列Disney Pixar Fest Collection 即享券</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>$495</t>
+          <t>$1,512</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(外帶)經典寵愛組即享券</t>
+          <t>【Häagen-Dazs哈根達斯】(高5吋)海島假期冰淇淋蛋糕即享券</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>$420</t>
+          <t>$1,976</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(外帶)珍藏蒙娜麗莎Sandwiches Collection 即享券</t>
+          <t>【Häagen-Dazs哈根達斯】(7吋)米奇露營趣冰淇淋蛋糕即享券</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>$1,422</t>
+          <t>$2,356</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>【COLD STONE】夏日吃冰趣！</t>
+          <t>【Häagen-Dazs哈根達斯】(外帶)西瓜草莓抹茶冰淇淋凍飲即享券</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>$999</t>
+          <t>$295</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(高5吋)小花園冰淇淋蛋糕即享券</t>
+          <t>【Häagen-Dazs哈根達斯】(外帶)西瓜美莓冰淇淋凍飲即享券</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>$1,976</t>
+          <t>$295</t>
         </is>
       </c>
     </row>
@@ -2419,12 +2419,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(5吋)米妮甜蜜一夏冰淇淋蛋糕即享券</t>
+          <t>【Häagen-Dazs哈根達斯】瓦夫假期(內用) 喜客券</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>$1,786</t>
+          <t>$325</t>
         </is>
       </c>
     </row>
@@ -2436,63 +2436,63 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(外帶)西瓜草莓抹茶冰淇淋凍飲即享券</t>
+          <t>【三商巧福】蘭州雙寶牛肉拉麵 喜客券</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>$295</t>
+          <t>$160</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】夏威夷風情 冰淇淋凍飲(外帶) 喜客券</t>
+          <t>【COLD STONE】給你滿滿生日祝福</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>$295</t>
+          <t>$1,512</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】寵愛自由配 品脫2入+迷你杯4入(外帶) 喜客券</t>
+          <t>【梁社漢】 香酥雞腿飯饗樂套餐 喜客券</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>$999</t>
+          <t>$160</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】瓦夫假期(內用) 喜客券</t>
+          <t>【多那之咖啡】美式咖啡(大杯)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>$325</t>
+          <t>$70</t>
         </is>
       </c>
     </row>
@@ -2504,29 +2504,29 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>【Ｍamaway媽媽餵】1000元電子禮物卡購物券</t>
+          <t>KKgift獨家｜桃園青埔｜Xpark 都會型水生公園成人門票</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>$1,000</t>
+          <t>$550</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>【多那之咖啡】美式咖啡(大杯)</t>
+          <t>【三商鮮五丼】卡滋菲力豬排丼 喜客券</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>$70</t>
+          <t>$149</t>
         </is>
       </c>
     </row>
@@ -2538,29 +2538,29 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>KKgift獨家｜桃園青埔｜Xpark 都會型水生公園成人門票</t>
+          <t>【多那之咖啡】紅玉紅茶</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>$550</t>
+          <t>$50</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>【三商鮮五丼】卡滋菲力豬排丼 喜客券</t>
+          <t>【多那之咖啡】漫步森林</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>$149</t>
+          <t>$79</t>
         </is>
       </c>
     </row>
@@ -2572,46 +2572,46 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>【COLD STONE】 生日大快樂！</t>
+          <t>【多那之咖啡】芙妮爾5吋蛋糕</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>$1,420</t>
+          <t>$450</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>【COLD STONE】 親愛的你 生日快樂喔!</t>
+          <t>【怡客咖啡】單人下午茶</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>$1,330</t>
+          <t>$160</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>【起士公爵】75特濃皇家布朗尼蛋糕(4吋)</t>
+          <t>KKgift獨家｜有點秋食物工作室｜達克罐罐彩虹甜點組合(輸入序號即可宅配到府)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>$590</t>
+          <t>$580</t>
         </is>
       </c>
     </row>
@@ -2623,12 +2623,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>【起士公爵】朱古力圓舞曲小小公爵乳酪蛋糕(乙杯)</t>
+          <t>【起士公爵】75特濃皇家布朗尼蛋糕(4吋)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>$150</t>
+          <t>$590</t>
         </is>
       </c>
     </row>
@@ -2640,46 +2640,46 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>【起士公爵】天使親吻輕乳酪蛋糕(6吋)</t>
+          <t>【起士公爵】初夏桑椹小小公爵乳酪蛋糕(乙杯)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>$450</t>
+          <t>$150</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>山系甜點｜莯潤 moonroom 山形蛋糕系列｜台灣本島低溫宅配 (輸入序號即可宅配到府)</t>
+          <t>【起士公爵】楓糖蔓越莓小小公爵乳酪蛋糕(乙杯)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>$380</t>
+          <t>$150</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>KKgift中秋禮盒｜台北遠東香格里拉・金沙奶皇月餅禮盒｜台灣本島低溫宅配 (輸入序號即可宅配到府)</t>
+          <t>【起士公爵】朱古力圓舞曲乳酪蛋糕(6吋)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>$1,088</t>
+          <t>$720</t>
         </is>
       </c>
     </row>
@@ -2691,80 +2691,80 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>[遠距練愛]聖保羅 豐盛禮盒A 喜客券</t>
+          <t>【起士公爵】楓糖蔓越莓乳酪蛋糕(6吋)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>$885</t>
+          <t>$650</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>【名留集團】頭皮清潔養護</t>
+          <t>【怡客咖啡】香芋肉鬆厚蛋三明治</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>$299</t>
+          <t>$100</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>【台北君悅酒店】君悅臻選 新加坡叻沙麵</t>
+          <t>山系甜點｜莯潤 moonroom 山形蛋糕系列｜台灣本島低溫宅配 (輸入序號即可宅配到府)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>$300</t>
+          <t>$380</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>[愛禮無極限]【COLD STONE】一起分享吧！</t>
+          <t>[遠距練愛]聖保羅 豐盛禮盒A 喜客券</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>$180</t>
+          <t>$885</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>【85度C】咖啡小蛋捲禮盒即享券</t>
+          <t>【名留集團】頭皮清潔養護</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>$250</t>
+          <t>$299</t>
         </is>
       </c>
     </row>
@@ -2776,12 +2776,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>【Buty99】《北中部》110分鐘 粉刺毛孔淨化術!紅顏潤氣亮白臉部SPA</t>
+          <t>【台北君悅酒店】君悅臻選 新加坡叻沙麵</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>$588</t>
+          <t>$300</t>
         </is>
       </c>
     </row>
@@ -2793,12 +2793,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(外帶)童享皮克斯系列Disney Pixar Fest Collection 即享券</t>
+          <t>【85度C】咖啡小蛋捲禮盒即享券</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>$1,512</t>
+          <t>$250</t>
         </is>
       </c>
     </row>
@@ -2810,12 +2810,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(外帶)勝利凱獻Luxury Classic (2盒) 即享券</t>
+          <t>【Häagen-Dazs哈根達斯】(外帶)月神祈願 Classic 即享券</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>$2,253</t>
+          <t>$972</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(外帶)月神祈願 Classic 即享券</t>
+          <t>【COLD STONE】夏日吃冰趣！</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>$972</t>
+          <t>$999</t>
         </is>
       </c>
     </row>
@@ -2844,12 +2844,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(7吋)樂，動聽冰淇淋蛋糕即享券</t>
+          <t>【Häagen-Dazs哈根達斯】(高5吋)小花園冰淇淋蛋糕即享券</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>$2,166</t>
+          <t>$1,976</t>
         </is>
       </c>
     </row>
@@ -2861,80 +2861,80 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】就是奶昔(內用) 喜客券</t>
+          <t>【Häagen-Dazs哈根達斯】(7吋)愛的禮物冰淇淋蛋糕即享券</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>$325</t>
+          <t>$2,356</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>【三商巧福】蘭州雙寶牛肉拉麵 喜客券</t>
+          <t>【Häagen-Dazs哈根達斯】傾心(心型) 冰淇淋蛋糕 喜客券</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>$160</t>
+          <t>$1,880</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>【怡客咖啡】電子抵用券100元</t>
+          <t>【Häagen-Dazs哈根達斯】芒果西瓜巴菲(外帶) 喜客券</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>$100</t>
+          <t>$295</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>【八月堂】65元可頌即享券</t>
+          <t>【Häagen-Dazs哈根達斯】寵愛自由配 品脫2入+迷你杯4入(外帶) 喜客券</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>$65</t>
+          <t>$999</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>【COLD STONE】給你滿滿生日祝福</t>
+          <t>【怡客咖啡】電子抵用券100元</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>$1,512</t>
+          <t>$100</t>
         </is>
       </c>
     </row>
@@ -2946,12 +2946,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>【梁社漢】 香酥雞腿飯饗樂套餐 喜客券</t>
+          <t>【了凡】招牌米其林油雞飯 喜客券</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>$160</t>
+          <t>$140</t>
         </is>
       </c>
     </row>
@@ -2975,68 +2975,68 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>【Buty99】《台北》200分鐘 全身手舞深層舒壓＋維納斯完美體雕魔SO課程</t>
+          <t>【艾波索】 比利時巧克力乳酪切片+拿鐵咖啡 喜客券</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>$799</t>
+          <t>$169</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>【添好運】XO醬臘味炒飯 喜客券</t>
+          <t>【勝博殿】主廚特選組合套餐F即享券</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>$168</t>
+          <t>$473</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>【添好運】香滑牛肉腸 喜客券</t>
+          <t>【勝博殿】主廚特選組合套餐A即享券</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>$128</t>
+          <t>$572</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>【勝博殿】主廚特選組合套餐A即享券</t>
+          <t>【多那之咖啡】小農原味拿鐵</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>$572</t>
+          <t>$75</t>
         </is>
       </c>
     </row>
@@ -3048,46 +3048,46 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>【多那之咖啡】小農原味拿鐵</t>
+          <t>【多那之咖啡】可可雲階</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>$90</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>【多那之咖啡】北海道乳香拿鐵（中杯）</t>
+          <t>六月初一｜金 8 結禮盒（ 2 盒/組） (輸入序號即可宅配到府)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>$75</t>
+          <t>$625</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>【多那之咖啡】紅玉紅茶</t>
+          <t>【COLD STONE】 親愛的妳 生日快樂喔!</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>$50</t>
+          <t>$1,330</t>
         </is>
       </c>
     </row>
@@ -3099,29 +3099,29 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>【COLD STONE】 給你滿滿的生日驚喜！</t>
+          <t>【COLD STONE】 親愛的你 生日快樂喔!</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>$1,420</t>
+          <t>$1,330</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>KKgift 青鳥旅行｜奢華灌餡蛋捲禮盒（ 16 入/盒）(輸入序號即可宅配到府)</t>
+          <t>【COLD STONE】 冰淇淋同樂會</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>$600</t>
+          <t>$1,330</t>
         </is>
       </c>
     </row>
@@ -3133,12 +3133,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>【起士公爵】靜岡熔岩抹茶布朗尼(4吋)</t>
+          <t>【起士公爵】北國藍莓乳酪蛋糕(4吋)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>$760</t>
+          <t>$590</t>
         </is>
       </c>
     </row>
@@ -3162,68 +3162,68 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>【起士公爵】楓糖蔓越莓乳酪蛋糕(6吋)</t>
+          <t>【紅豆食府】精緻官燕雙人饗宴</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>$650</t>
+          <t>$1,399</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>【怡客咖啡】香芋肉鬆厚蛋三明治</t>
+          <t>【高雄洲際酒店】SEEDS全日餐廳|商業午間套餐</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>$100</t>
+          <t>$1,310</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>【高雄洲際酒店】SEEDS全日餐廳|商業午間套餐</t>
+          <t>amba 台北西門町意舍酒店｜The CAPE 龍蝦&amp;海鮮餐廳｜平日雙人分享餐餐券（須自行電話訂位）</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>$1,310</t>
+          <t>$1,480</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>台北六福萬怡酒店｜敘日全日餐廳｜四人同行含訂位服務</t>
+          <t>[遠距練愛]聖保羅 御璽禮盒A 喜客券</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>$4,899</t>
+          <t>$1,405</t>
         </is>
       </c>
     </row>
@@ -3235,29 +3235,29 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>[遠距練愛]聖保羅 豐盛禮盒B 喜客券</t>
+          <t>【台北君悅酒店】君悅臻選 川味紅燒牛肉麵</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>$855</t>
+          <t>$300</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>[遠距練愛]聖保羅 御璽禮盒A 喜客券</t>
+          <t>【名留集團】 極致頭皮清潔養護</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>$1,405</t>
+          <t>$999</t>
         </is>
       </c>
     </row>
@@ -3269,29 +3269,29 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>【Buty99】《北南部》140分鐘!身心療癒專屬SPA!全身忘憂舒眠+腹宮脈輪淨化</t>
+          <t>【Buty99】《北中部》110分鐘 粉刺毛孔淨化術!紅顏潤氣亮白臉部SPA</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>$650</t>
+          <t>$588</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(外帶)羅浮典藏Rainbow Collection 即享券</t>
+          <t>【Buty99】《中南部》160分鐘!古埃及能量紓壓+極雕魔法曲線課程</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>$2,682</t>
+          <t>$699</t>
         </is>
       </c>
     </row>
@@ -3303,114 +3303,114 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>【Buty99】《高雄》100分鐘滿時數!純手技美背舒壓嫩白+腰腹臀腿雕塑</t>
+          <t>【Buty99】《北南部》140分鐘!身心療癒專屬SPA!全身忘憂舒眠+腹宮脈輪淨化</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>$599</t>
+          <t>$650</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>【Buty99】《台北》120分鐘!孕媽咪好孕時光!寵愛孕婦SPA全身舒壓放鬆之旅</t>
+          <t>【Häagen-Dazs哈根達斯】(外帶)經典寵愛組即享券</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>$799</t>
+          <t>$420</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>【Buty99】《北部》幸福好孕 法國頂級奢華孕婦SPA舒壓之旅</t>
+          <t>【Häagen-Dazs哈根達斯】(外帶)羅浮典藏Rainbow Collection 即享券</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>$1,099</t>
+          <t>$2,682</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(高5吋)海島假期冰淇淋蛋糕即享券</t>
+          <t>【Häagen-Dazs哈根達斯】(外帶)珍藏蒙娜麗莎Sandwiches Collection (2盒) 即享券</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>$1,976</t>
+          <t>$2,781</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(10吋)融情巧克力冰淇淋蛋糕即享券</t>
+          <t>【Häagen-Dazs哈根達斯】(外帶)珍藏蒙娜麗莎Sandwiches Collection 即享券</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>$2,736</t>
+          <t>$1,422</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(10吋)暖暖陽光冰淇淋蛋糕即享券</t>
+          <t>【Häagen-Dazs哈根達斯】(外帶)月神祈願 Classic (2盒) 即享券</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>$2,736</t>
+          <t>$1,901</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(7吋)愛麗絲夢遊仙境冰淇淋蛋糕即享券</t>
+          <t>【iCarry】佳德 原味鳳梨酥12入即享券(輸入序號即可宅配到府)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>$2,261</t>
+          <t>$516</t>
         </is>
       </c>
     </row>
@@ -3422,29 +3422,29 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(7吋)暖暖陽光冰淇淋蛋糕即享券</t>
+          <t>【Buty99】《高雄》100分鐘滿時數!純手技美背舒壓嫩白+腰腹臀腿雕塑</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>$2,166</t>
+          <t>$599</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(7吋)愛的禮物冰淇淋蛋糕即享券</t>
+          <t>【iCarry】海邊走走 花生愛餡蛋捲一組(2盒)即享券(輸入序號即可宅配到府)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>$2,356</t>
+          <t>$1,100</t>
         </is>
       </c>
     </row>
@@ -3456,12 +3456,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(內用)巧戀蘭姆葡萄冰淇淋凍飲即享券</t>
+          <t>【Häagen-Dazs哈根達斯】(10吋)暖暖陽光冰淇淋蛋糕即享券</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>$295</t>
+          <t>$2,736</t>
         </is>
       </c>
     </row>
@@ -3473,12 +3473,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(內用)夏威夷風情冰淇淋凍飲即享券</t>
+          <t>【Häagen-Dazs哈根達斯】(7吋)愛麗絲夢遊仙境冰淇淋蛋糕即享券</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>$295</t>
+          <t>$2,261</t>
         </is>
       </c>
     </row>
@@ -3490,12 +3490,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(內用)櫻桃黑莓戀曲冰淇淋凍飲即享券</t>
+          <t>【Häagen-Dazs哈根達斯】(7吋)樂，動聽冰淇淋蛋糕即享券</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>$295</t>
+          <t>$2,166</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(內用)西瓜草莓抹茶冰淇淋凍飲即享券</t>
+          <t>【Häagen-Dazs哈根達斯】(內用)櫻桃黑莓戀曲冰淇淋凍飲即享券</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】(內用)西瓜美莓冰淇淋凍飲即享券</t>
+          <t>【Häagen-Dazs哈根達斯】(內用)西瓜草莓抹茶冰淇淋凍飲即享券</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】傾心(心型) 冰淇淋蛋糕 喜客券</t>
+          <t>【Häagen-Dazs哈根達斯】5英吋冰淇淋蛋糕任選(米奇的小旅行/融情巧克力/暖暖陽光) 喜客券</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3553,17 +3553,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>【Häagen-Dazs哈根達斯】芒果西瓜巴菲(外帶) 喜客券</t>
+          <t>【Häagen-Dazs哈根達斯】就是奶昔(內用) 喜客券</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>$295</t>
+          <t>$325</t>
         </is>
       </c>
     </row>
@@ -3592,12 +3592,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>【八月堂】59元可頌即享券</t>
+          <t>【八月堂】65元可頌即享券</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>$59</t>
+          <t>$65</t>
         </is>
       </c>
     </row>
@@ -3621,17 +3621,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>【聖保羅】 松子Q餅5入禮盒 喜客券</t>
+          <t>【Buty99】《北中部》男女適用 開啟美肌模式 無創激活超微雕科技美塑魔顏,共2次</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>$275</t>
+          <t>$550</t>
         </is>
       </c>
     </row>
@@ -3643,12 +3643,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>【Buty99】《北中部》男女適用 開啟美肌模式 無創激活超微雕科技美塑魔顏,共2次</t>
+          <t>【Buty99】《台南》140分鐘!全身純手技精油按摩+減吋曲線美白嫩膚SPA</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>$550</t>
+          <t>$799</t>
         </is>
       </c>
     </row>
@@ -3723,17 +3723,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>【伯朗咖啡館】 巧克力法樂皮(大杯) 喜客券</t>
+          <t>【品川蘭】 雪花牛肉麵 喜客券</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>$140</t>
+          <t>$220</t>
         </is>
       </c>
     </row>
@@ -3745,12 +3745,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>【伯朗咖啡館】 摩卡可可碎片法樂皮(大杯) 喜客券</t>
+          <t>【伯朗咖啡館】 伯朗拿鐵(大杯) 喜客券</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>$140</t>
+          <t>$130</t>
         </is>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>【伯朗咖啡館】 焦糖瑪奇朵(大杯) 喜客券</t>
+          <t>【伯朗咖啡館】 巧克力法樂皮(大杯) 喜客券</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3779,12 +3779,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>【伯朗咖啡館】 抹茶拿鐵(大杯) 喜客券</t>
+          <t>【伯朗咖啡館】 焦糖瑪奇朵(大杯) 喜客券</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>$145</t>
+          <t>$140</t>
         </is>
       </c>
     </row>
@@ -3796,12 +3796,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>【伯朗咖啡館】 伯朗咖啡館 魔力冰淇淋(大杯) 喜客券</t>
+          <t>【伯朗咖啡館】 伯朗咖啡館 卡布奇諾(中杯) 喜客券</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>$140</t>
+          <t>$120</t>
         </is>
       </c>
     </row>
@@ -3813,12 +3813,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>【伯朗咖啡館】 伯朗咖啡館 卡布奇諾(中杯) 喜客券</t>
+          <t>【伯朗咖啡館】 風味奶茶(大杯) 喜客券</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>$120</t>
+          <t>$130</t>
         </is>
       </c>
     </row>
@@ -3830,12 +3830,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>【伯朗咖啡館】 風味奶茶(大杯) 喜客券</t>
+          <t>【伯朗咖啡館】 精選蛋糕 喜客券</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>$130</t>
+          <t>$95</t>
         </is>
       </c>
     </row>
@@ -3847,12 +3847,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>【伯朗咖啡館】 精選蛋糕 喜客券</t>
+          <t>【伯朗咖啡館】 本日咖啡(大杯) 喜客券</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>$95</t>
+          <t>$100</t>
         </is>
       </c>
     </row>
@@ -3864,12 +3864,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>【伯朗咖啡館】 本日咖啡(大杯) 喜客券</t>
+          <t>【西雅圖極品咖啡】 巧克力牛奶咖啡冰沙(大杯) 喜客券</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>$100</t>
+          <t>$130</t>
         </is>
       </c>
     </row>
@@ -3881,12 +3881,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>【伯朗咖啡館】 美式咖啡(大杯) 喜客券</t>
+          <t>【艾波索】 巧克力黑金磚切片+拿鐵咖啡 喜客券</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>$110</t>
+          <t>$159</t>
         </is>
       </c>
     </row>
@@ -3898,12 +3898,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>【西雅圖極品咖啡】 巧克力牛奶咖啡冰沙(大杯) 喜客券</t>
+          <t>【艾波索】 極光醇黑巧克力蛋糕切片+拿鐵咖啡  喜客券</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>$130</t>
+          <t>$179</t>
         </is>
       </c>
     </row>
@@ -3915,114 +3915,114 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>【艾波索】 極光醇黑巧克力蛋糕切片+冷泡茶 喜客券</t>
+          <t>【聖保羅】 香草核桃條 喜客券</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>$149</t>
+          <t>$180</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>【艾波索】 巧克力黑金磚切片+拿鐵咖啡 喜客券</t>
+          <t>【Buty99】《台北》200分鐘 全身手舞深層舒壓＋維納斯完美體雕魔SO課程</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>$159</t>
+          <t>$799</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>【艾波索】 極光醇黑巧克力蛋糕切片+拿鐵咖啡  喜客券</t>
+          <t>【Buty99】《中部》120分鐘滿時數 全身輕盈淨化＋頂級芳香精油純手技按摩</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>$179</t>
+          <t>$750</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>【聖保羅】 伯爵布丁 喜客券</t>
+          <t>【Buty99】《台南》130分鐘!春泉美緻精油舒活按摩+維納斯精塑纖腿SPA</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>$50</t>
+          <t>$699</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>10.0%</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>【聖保羅】 香草核桃條 喜客券</t>
+          <t>【Buty99】《北中南》北中南 200分鐘！輕盈一夏 全身舒活激SO白皙爆脂顯瘦課程</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>$180</t>
+          <t>$750</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>【Buty99】《中部》120分鐘滿時數 全身輕盈淨化＋頂級芳香精油純手技按摩</t>
+          <t>【添好運】鮮蝦燒賣皇 喜客券</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>$750</t>
+          <t>$148</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>【八月堂】奶油酥烤脆餅(黑絲絨巧克)</t>
+          <t>【添好運】XO醬臘味炒飯 喜客券</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>$180</t>
+          <t>$168</t>
         </is>
       </c>
     </row>
@@ -4034,12 +4034,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>【添好運】流沙包 喜客券</t>
+          <t>【添好運】好運冰火菠蘿 喜客券</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>$148</t>
+          <t>$118</t>
         </is>
       </c>
     </row>
@@ -4063,34 +4063,34 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>【勝博殿】主廚特選組合套餐F即享券</t>
+          <t>【添好運】香滑牛肉腸 喜客券</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>$473</t>
+          <t>$128</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>10.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>【Buty99】《全台》170分鐘!燃燒系薑の爆脂~暢熱暖油舒壓竹雕油切纖體SPA</t>
+          <t>【起士公爵】初夏桑椹乳酪蛋糕(4吋)+北國藍莓乳酪蛋糕(4吋)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>$750</t>
+          <t>$1,180</t>
         </is>
       </c>
     </row>
@@ -4102,63 +4102,63 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>【起士公爵】初夏桑椹乳酪蛋糕(4吋)+北國藍莓乳酪蛋糕(4吋)</t>
+          <t>【台中 庄腳養生會館】中式精湛手藝全身指壓按摩，全程70分 享樂券</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>$1,180</t>
+          <t>$799</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>KKgift｜下班隨手作｜星座瓶中乾燥花禮盒（含運）</t>
+          <t>【宜蘭礁溪寒沐酒店《MU TABLE》】平日晚餐/假日午晚餐單人券$1249 享樂券</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>$310</t>
+          <t>$1,249</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>【點水樓】五星雙人套餐兌換券</t>
+          <t>陽光菓菓 熾熱心意禮盒（零添加三入款）｜輸入序號即可宅配到府</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>$1,000</t>
+          <t>$599</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>陽光菓菓 熾熱心意禮盒（零添加三入款）｜輸入序號即可宅配到府</t>
+          <t>【三商鮮五丼】唐揚親子丼 喜客券</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>$599</t>
+          <t>$139</t>
         </is>
       </c>
     </row>
@@ -4170,46 +4170,46 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>【三商鮮五丼】爪哇咖哩菲力豬排丼 喜客券</t>
+          <t>【三商鮮五丼】招牌牛丼 喜客券</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>$149</t>
+          <t>$109</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>【三商鮮五丼】唐揚親子丼 喜客券</t>
+          <t>【中秋禮盒】鮮乳坊 X 老楊聯名《雙享方塊酥禮盒》｜ 1 盒免運（輸入序號即可宅配到府）</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>$139</t>
+          <t>$399</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>【中秋禮盒】鮮乳坊 X 老楊聯名《雙享方塊酥禮盒》｜ 1 盒免運（輸入序號即可宅配到府）</t>
+          <t>【多那之咖啡】小農法式左岸拿鐵</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>$399</t>
+          <t>$85</t>
         </is>
       </c>
     </row>
@@ -4221,12 +4221,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>【多那之咖啡】小農法式左岸拿鐵</t>
+          <t>【多那之咖啡】阿里山金萱</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>$85</t>
+          <t>$55</t>
         </is>
       </c>
     </row>
@@ -4238,12 +4238,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>【多那之咖啡】阿里山金萱</t>
+          <t>【多那之咖啡】仲夏芒果冰沙（中杯）</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>$55</t>
+          <t>$75</t>
         </is>
       </c>
     </row>
@@ -4255,114 +4255,114 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>【多那之咖啡】漫步森林</t>
+          <t>【多那之咖啡】水洗耶加雪菲</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>$79</t>
+          <t>$95</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>六月初一｜金 8 結禮盒（ 2 盒/組） (輸入序號即可宅配到府)</t>
+          <t>【COLD STONE】 給你滿滿的生日驚喜！</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>$625</t>
+          <t>$1,420</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>【平日8折】高雄露營｜遠山望月溫泉風呂露營區｜湯屋VILLA營車</t>
+          <t>【森SPA】精油舒壓按摩60分鐘 $999 享樂券</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>$7,800</t>
+          <t>$999</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>台北內湖羊角包韓式汗蒸幕舒壓體驗｜汗蒸幕按摩雙享套餐（需自行電話預約）</t>
+          <t>KKgift 青鳥旅行｜奢華灌餡蛋捲禮盒（ 16 入/盒）(輸入序號即可宅配到府)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>$2,699</t>
+          <t>$600</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>【森SPA】腳底按摩60分鐘，加贈循環氣泡足浴10分鐘 $888 享樂券</t>
+          <t>KKgift 六月初一｜小王子 75 週年聯名禮盒（ 2 盒 1 組）(輸入序號即可宅配到府)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>$888</t>
+          <t>$650</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>【伴手禮首選】 KKgift 小潘蛋糕坊｜鳳凰酥有蛋（ 12 入/盒）｜2 盒 1 組(輸入序號即可宅配到府)</t>
+          <t>【怡客咖啡】卡布奇諾咖啡(H)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>$750</t>
+          <t>$100</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>KKgift 六月初一｜小王子 75 週年聯名禮盒（ 2 盒 1 組）(輸入序號即可宅配到府)</t>
+          <t>【COLD STONE】 角落小夥伴</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>$650</t>
+          <t>$1,330</t>
         </is>
       </c>
     </row>
@@ -4374,12 +4374,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>【怡客咖啡】米蘭雞腿藜麥飯套餐</t>
+          <t>【起士公爵】初夏桑椹乳酪蛋糕(4吋)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>$260</t>
+          <t>$590</t>
         </is>
       </c>
     </row>
@@ -4391,46 +4391,46 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>【怡客咖啡】焦糖瑪琪雅朵(H)</t>
+          <t>【起士公爵】靜岡熔岩抹茶布朗尼(4吋)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>$110</t>
+          <t>$760</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>【COLD STONE】 角落小夥伴</t>
+          <t>【起士公爵】雪釀香芋乳酪蛋糕(4吋)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>$1,330</t>
+          <t>$620</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>【COLD STONE】 冰淇淋同樂會</t>
+          <t>【起士公爵】純粹原味小小公爵杯子蛋糕(乙杯)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>$1,330</t>
+          <t>$150</t>
         </is>
       </c>
     </row>
@@ -4442,12 +4442,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>【起士公爵】初夏桑椹乳酪蛋糕(4吋)</t>
+          <t>【起士公爵】美麗秘密乳酪蛋糕(6吋)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>$590</t>
+          <t>$980</t>
         </is>
       </c>
     </row>
@@ -4459,12 +4459,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>【起士公爵】雪釀香芋乳酪蛋糕(4吋)</t>
+          <t>【起士公爵】蜜韻青檸乳酪蛋糕(6吋)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>$620</t>
+          <t>$650</t>
         </is>
       </c>
     </row>
@@ -4476,29 +4476,29 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>【起士公爵】初夏桑椹小小公爵乳酪蛋糕(乙杯)</t>
+          <t>【起士公爵】靜岡熔岩抹茶布朗尼(6吋)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>$150</t>
+          <t>$1,080</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>【起士公爵】美麗秘密乳酪蛋糕(6吋)</t>
+          <t>MOOD沐・雞尾酒｜調酒冰磚膠囊 一組 2 盒 共 12入 | 含低溫運費 (輸入序號即可宅配到府)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>$980</t>
+          <t>$1,020</t>
         </is>
       </c>
     </row>
@@ -4510,46 +4510,46 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>【起士公爵】蜜韻青檸乳酪蛋糕(6吋)</t>
+          <t>【獨家限量搶購】台北｜音樂玩家的秘密基地：探索臺北流行音樂中心｜專人導覽解說＋【唱 我們的歌 流行音樂故事展】免費參觀</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>$650</t>
+          <t>$350</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>KKgift｜Sheryl's Recipe 嗜甜女子｜茶系列厚達克瓦茲(輸入序號即可宅配到府)</t>
+          <t>2022福隆國際沙雕藝術季｜霹靂傳奇・掌中天下｜四人套票</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>$730</t>
+          <t>$700</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MOOD沐・雞尾酒｜調酒冰磚膠囊 一組 2 盒 共 12入 | 含低溫運費 (輸入序號即可宅配到府)</t>
+          <t>2022福隆國際沙雕藝術季｜霹靂傳奇・掌中天下｜雙人套票</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>$1,020</t>
+          <t>$399</t>
         </is>
       </c>
     </row>
@@ -4561,12 +4561,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>【獨家限量搶購】台北｜音樂玩家的秘密基地：探索臺北流行音樂中心｜專人導覽解說＋【唱 我們的歌 流行音樂故事展】免費參觀</t>
+          <t>2022福隆國際沙雕藝術季｜霹靂傳奇・掌中天下｜單人套票</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>$350</t>
+          <t>$199</t>
         </is>
       </c>
     </row>
@@ -4578,12 +4578,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2022福隆國際沙雕藝術季｜霹靂傳奇・掌中天下｜四人套票</t>
+          <t>【線上優惠8折】高雄科工館＆熱雪天堂探索樂園特展｜聯合門票優惠 (假日)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>$700</t>
+          <t>$280</t>
         </is>
       </c>
     </row>
@@ -4595,12 +4595,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2022福隆國際沙雕藝術季｜霹靂傳奇・掌中天下｜雙人套票</t>
+          <t>【線上優惠8折】高雄科工館＆熱雪天堂探索樂園特展｜聯合門票優惠 (平日)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>$399</t>
+          <t>$280</t>
         </is>
       </c>
     </row>
@@ -4612,12 +4612,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2022福隆國際沙雕藝術季｜霹靂傳奇・掌中天下｜單人套票</t>
+          <t>台北展覽｜鬼滅之刃全集中展門票</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>$199</t>
+          <t>$350</t>
         </is>
       </c>
     </row>
@@ -4629,12 +4629,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>【線上優惠8折】高雄科工館＆熱雪天堂探索樂園特展｜聯合門票優惠 (假日)</t>
+          <t>【怡客咖啡】香芋肉鬆三明治</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>$280</t>
+          <t>$100</t>
         </is>
       </c>
     </row>
@@ -4646,12 +4646,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>【線上優惠8折】高雄科工館＆熱雪天堂探索樂園特展｜聯合門票優惠 (平日)</t>
+          <t>《台中》120分鐘!減吋享瘦!全身窈窕精油嫩白舒壓+魔爪精雕美人腿</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>$280</t>
+          <t>$638</t>
         </is>
       </c>
     </row>
@@ -4663,63 +4663,63 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>台北展覽｜鬼滅之刃全集中展門票</t>
+          <t>《北中南》男女適用!私密處真空刪毛杜絕黑森林</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>$350</t>
+          <t>$699</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>【怡客咖啡】香芋肉鬆三明治</t>
+          <t>【大和養身會館】指壓/身體按摩通用券</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>$100</t>
+          <t>$789</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>《台中》120分鐘!減吋享瘦!全身窈窕精油嫩白舒壓+魔爪精雕美人腿</t>
+          <t>【瑞醫SWISSPA】精選限定課程(高雄萬豪旗艦會館)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>$638</t>
+          <t>$3,980</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>《北中南》男女適用!私密處真空刪毛杜絕黑森林</t>
+          <t>【微夏FreesiaSPA】 精選三項限定課程(捷運中山站4號出口)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>$699</t>
+          <t>$1,398</t>
         </is>
       </c>
     </row>
@@ -4731,12 +4731,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>【大和養身會館】指壓/身體按摩通用券</t>
+          <t>【瑞醫SWISSPA】精選寵愛課程(5擇1)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>$789</t>
+          <t>$2,650</t>
         </is>
       </c>
     </row>
@@ -4748,12 +4748,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>【瑞醫SWISSPA】精選限定課程(高雄萬豪旗艦會館)</t>
+          <t>【力麗威斯汀度假酒店】2人知味西餐廳自助晚餐吃到飽</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>$3,980</t>
+          <t>$1,780</t>
         </is>
       </c>
     </row>
@@ -4765,46 +4765,46 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>【微夏FreesiaSPA】 精選三項限定課程(捷運中山站4號出口)</t>
+          <t>【揪餖燒肉】2人嚴選牛肉饗宴</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>$1,398</t>
+          <t>$1,880</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>【瑞醫SWISSPA】精選寵愛課程(5擇1)</t>
+          <t>《桃園》迎夏完美小心機!蜜蠟除毛好Easy,任選2部位</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>$2,650</t>
+          <t>$850</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>【力麗威斯汀度假酒店】2人知味西餐廳自助晚餐吃到飽</t>
+          <t>《台中》180分鐘!全身綠洲精油舒壓+腰腹臀腿體雕+臉部奢華黃金激活術</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>$1,780</t>
+          <t>$750</t>
         </is>
       </c>
     </row>
@@ -4816,12 +4816,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>【揪餖燒肉】2人嚴選牛肉饗宴</t>
+          <t>【羽樂歐陸創意料理】$1000餐券贈主廚特製開胃菜</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>$1,880</t>
+          <t>$990</t>
         </is>
       </c>
     </row>
@@ -4833,97 +4833,97 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>【紅豆食府】精緻官燕雙人饗宴</t>
+          <t>【高雄洲際酒店】SEEDS全日餐廳|假日輕鬆餉沙拉吧</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>$1,399</t>
+          <t>$1,005</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>《桃園》迎夏完美小心機!蜜蠟除毛好Easy,任選2部位</t>
+          <t>皇家東方泰SPA會館 泰經典享宴三選一110分</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>$850</t>
+          <t>$1,100</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>《台中》180分鐘!全身綠洲精油舒壓+腰腹臀腿體雕+臉部奢華黃金激活術</t>
+          <t>台北六福萬怡酒店｜敘日全日餐廳｜四人同行含訂位服務</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>$750</t>
+          <t>$4,899</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>【羽樂歐陸創意料理】$1000餐券贈主廚特製開胃菜</t>
+          <t>寒舍艾麗酒店 x 雙層星空巴士 100 分鐘夜遊暢飲券｜4人同行1人免費（須自行訂位）</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>$990</t>
+          <t>$4,197</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>【高雄洲際酒店】SEEDS全日餐廳|假日輕鬆餉沙拉吧</t>
+          <t>amba 台北西門町意舍酒店｜The CAPE 龍蝦&amp;海鮮餐廳｜平日四人分享餐餐券（須自行電話訂位）</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>$1,005</t>
+          <t>$2,880</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>皇家東方泰SPA會館 泰經典享宴三選一110分</t>
+          <t>amba 台北西門町意舍酒店｜The CAPE 龍蝦&amp;海鮮餐廳｜雙人週末自助晚餐餐券（須自行電話訂位）</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>$1,100</t>
+          <t>$1,800</t>
         </is>
       </c>
     </row>
@@ -4935,46 +4935,46 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>寒舍艾麗酒店 x 雙層星空巴士 100 分鐘夜遊暢飲券｜4人同行1人免費（須自行訂位）</t>
+          <t>amba 台北意舍酒店｜手工曲奇中秋禮盒｜酒店自取</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>$4,197</t>
+          <t>$880</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>amba 台北西門町意舍酒店｜The CAPE 龍蝦&amp;海鮮餐廳｜平日四人分享餐餐券（須自行電話訂位）</t>
+          <t>【有好研製】禮物卡 6000元</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>$2,880</t>
+          <t>$5,200</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>amba 台北西門町意舍酒店｜The CAPE 龍蝦&amp;海鮮餐廳｜平日雙人分享餐餐券（須自行電話訂位）</t>
+          <t>【有好研製】禮物卡 2200元</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>$1,480</t>
+          <t>$2,000</t>
         </is>
       </c>
     </row>
@@ -4986,97 +4986,97 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>amba 台北西門町意舍酒店｜The CAPE 龍蝦&amp;海鮮餐廳｜雙人週末自助晚餐餐券（須自行電話訂位）</t>
+          <t>KKgift中秋禮盒｜台北遠東香格里拉・金沙奶皇月餅禮盒｜飯店自取</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>$1,800</t>
+          <t>$890</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>amba 台北意舍酒店｜手工曲奇中秋禮盒｜酒店自取</t>
+          <t>【有好研製】禮物卡 600元</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>$880</t>
+          <t>$600</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>【有好研製】禮物卡 6000元</t>
+          <t>[遠距練愛]聖保羅 富貴禮盒E 喜客券</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>$5,200</t>
+          <t>$453</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>【有好研製】禮物卡 2200元</t>
+          <t>[遠距練愛]聖保羅 富貴禮盒C 喜客券</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>$2,000</t>
+          <t>$525</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>KKgift中秋禮盒｜台北遠東香格里拉・金沙奶皇月餅禮盒｜飯店自取</t>
+          <t>[遠距練愛]聖保羅 富貴禮盒B 喜客券</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>$890</t>
+          <t>$660</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>【有好研製】禮物卡 600元</t>
+          <t>[遠距練愛]聖保羅 雲裳禮盒C 喜客券</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>$600</t>
+          <t>$603</t>
         </is>
       </c>
     </row>
@@ -5088,12 +5088,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>[遠距練愛]聖保羅 富貴禮盒E 喜客券</t>
+          <t>[遠距練愛]聖保羅 雲裳禮盒B 喜客券</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>$453</t>
+          <t>$675</t>
         </is>
       </c>
     </row>
@@ -5105,12 +5105,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>[遠距練愛]聖保羅 富貴禮盒C 喜客券</t>
+          <t>[遠距練愛]聖保羅 雲裳禮盒A 喜客券</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>$525</t>
+          <t>$735</t>
         </is>
       </c>
     </row>
@@ -5122,12 +5122,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>[遠距練愛]聖保羅 富貴禮盒B 喜客券</t>
+          <t>[遠距練愛]聖保羅 豐盛禮盒D 喜客券</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>$660</t>
+          <t>$709</t>
         </is>
       </c>
     </row>
@@ -5139,12 +5139,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>[遠距練愛]聖保羅 雲裳禮盒C 喜客券</t>
+          <t>[遠距練愛]聖保羅 豐盛禮盒C 喜客券</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>$603</t>
+          <t>$813</t>
         </is>
       </c>
     </row>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>[遠距練愛]聖保羅 雲裳禮盒B 喜客券</t>
+          <t>[遠距練愛]聖保羅 豐盛禮盒B 喜客券</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>$675</t>
+          <t>$855</t>
         </is>
       </c>
     </row>
@@ -5173,12 +5173,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>[遠距練愛]聖保羅 雲裳禮盒A 喜客券</t>
+          <t>[遠距練愛]聖保羅 御璽禮盒B 喜客券</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>$735</t>
+          <t>$1,233</t>
         </is>
       </c>
     </row>
@@ -5190,12 +5190,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>[遠距練愛]聖保羅 豐盛禮盒D 喜客券</t>
+          <t>[遠距練愛]聖保羅 大觀園禮盒B 喜客券</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>$709</t>
+          <t>$928</t>
         </is>
       </c>
     </row>
@@ -5207,63 +5207,63 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>[遠距練愛]聖保羅 豐盛禮盒C 喜客券</t>
+          <t>[遠距練愛]聖保羅 大觀園禮盒A 喜客券</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>$813</t>
+          <t>$1,029</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>[遠距練愛]聖保羅 御璽禮盒B 喜客券</t>
+          <t>【名留集團】深層洗髮+剪髮+造型(不分長短)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>$1,233</t>
+          <t>$349</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>[遠距練愛]聖保羅 大觀園禮盒B 喜客券</t>
+          <t>【名留集團】 韓式冷燙+染髮(送剪髮)(長度過胸)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>$928</t>
+          <t>$2,399</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>[遠距練愛]聖保羅 大觀園禮盒A 喜客券</t>
+          <t>【名留集團】日系耳圈染(含洗髮)</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>$1,029</t>
+          <t>$599</t>
         </is>
       </c>
     </row>
@@ -5275,12 +5275,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>【名留集團】深層洗髮+剪髮+造型(不分長短)</t>
+          <t>【名留集團】韓式冷燙+染髮(送剪髮)</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>$349</t>
+          <t>$1,899</t>
         </is>
       </c>
     </row>
@@ -5292,12 +5292,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>【名留集團】 韓式冷燙+染髮(送剪髮)(長度過胸)</t>
+          <t>【名留集團】歐美手刷染(含漂髮)</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>$2,399</t>
+          <t>$2,499</t>
         </is>
       </c>
     </row>
@@ -5309,12 +5309,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>【名留集團】日系耳圈染(含洗髮)</t>
+          <t>【名留集團】女神溫塑燙</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>$599</t>
+          <t>$1,999</t>
         </is>
       </c>
     </row>
@@ -5326,46 +5326,46 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>【名留集團】韓式冷燙+染髮(送剪髮)</t>
+          <t>【名留集團】質感離子燙 (不含剪髮)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>$1,899</t>
+          <t>$1,999</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>【名留集團】歐美手刷染(含漂髮)</t>
+          <t>【EMPEROR 皇樓】全台多點1200元_提貨型(超值兌) 享樂券</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>$2,499</t>
+          <t>$1,000</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>【名留集團】女神溫塑燙</t>
+          <t>【ISABELLE 伊莎貝爾】全台多點1200元_提貨型(超值兌) 享樂券</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>$1,999</t>
+          <t>$1,000</t>
         </is>
       </c>
     </row>
@@ -5377,29 +5377,2834 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>【名留集團】質感離子燙 (不含剪髮)</t>
+          <t>【名留集團】毛髪淨化去角質(含洗髮)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>$1,999</t>
+          <t>$499</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>5.0%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>【EMPEROR 皇樓】全台多點1200元_提貨型(超值兌) 享樂券</t>
+          <t>【名留集團】晶亮護髮(送洗髮+剪髮)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>$1,000</t>
+          <t>$849</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>【名留集團】女神接髮(接到好)</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>$9,999</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>【名留集團】日式兩段結構式護髮(含洗)(不分長短)</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>$1,199</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>【名留集團】極致深層修復護髮(不分長短)</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>$599</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>【台北君悅酒店】 君悅臻選 慢韻清燉牛肉麵</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>$300</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>【台北君悅酒店】悅圓錦簇  「君賞錵苑」中秋禮盒</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>$1,180</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>【台北君悅酒店】悅圓錦簇 「豐悅禧蒔」中秋禮盒</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>$1,780</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>【名留集團】韓式染髮單色(長度過胸)</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>$1,499</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>【名留集團】深層洗髮+造型(不分長短)</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>$199</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>【名留集團】韓式燙髮(冷燙)</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>$1,199</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>【名留集團】韓式染髮單色</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>$1,199</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>【品川蘭】 雪花牛肉麵 喜客券（3碗/1組，限最低購買數為3）</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>$220</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>【三商鮮五丼】招牌牛丼 喜客券（3份/1組，限最低購買數為3）</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>$109</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>【福勝亭】大阪燒豬排定食 喜客券（3份/1組，限最低購買數為3）</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>$230</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>【這味泰泰】泰式醬燒排骨飯</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>$198</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>【這味泰泰】椒麻炸雞椒麻乾拌拉麵</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>$198</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>【這味泰泰】泰酥雞腿排椒麻乾拌拉麵</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>$198</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>KKgift獨家｜澎湖｜大益夜釣小管｜體驗行程 + 現撈新鮮小管</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>$350</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>【星球工坊】炫樣提盒極致款（9包） 喜客券</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>$384</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>【星球工坊】20g分享包（6包） 喜客券</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>$240</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>【星球工坊】極致系列爆米花 喜客券</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>$260</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>【星球工坊】經典系列爆米花 喜客券</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>$160</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>【起士公爵】鳳梨金磚費雪禮盒(8入/盒)</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>$690</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>【伊莎貝爾】法式經典圓形磅蛋糕520元任選即享券</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>$460</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>【伊莎貝爾】來貘布雪綜合禮盒A(10入)即享券</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>$378</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>【85度C】眾星拱月禮盒即享券</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>$780</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>【85度C】流光逐月禮盒即享券</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>$499</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>【85度C】花好月圓禮盒即享券</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>$480</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>【85度C】邀月品秋(素)禮盒即享券</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>$450</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>【Buty99】《新北》160分鐘!全身紓壓+水嫩美顏!薰衣草精油舒眠SPA+淨痘活膚保濕課程</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>$650</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>【Buty99】《台北》150分鐘!全身花精按摩嫩白SPA+小臉美肌嫩膚課程</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>$699</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>【Buty99】《南部》男女適用!掰掰粉刺油痘肌!水漩渦淨膚微雕滑蛋肌,共2次</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>$550</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>【Buty99】《北中南》美肌達人!擺脫粉刺不痘留亮白水嫩滑蛋肌課程,共2次</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>$599</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>【Buty99】《台中》160分鐘！頂級皇家精油全身放鬆＋曲雕纖體SPA</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>$650</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>【Buty99】《北南部》不限男女 活氧泡泡奈米保濕嫩白馭膚術,共2次</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>$550</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>【Buty99】《台北》150分鐘！全身香氛尊寵纖瘦淨白舒壓之旅</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>$650</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>【Buty99】《台北》迎夏女神大作戰!美白類脈衝激光刪毛術,任選2次</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>$599</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>【Buty99】《新北》不限男女!膠原增生!緊實Q彈!無創類電波激活嫩膚課程,共2次</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>$599</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>【Buty99】《台北》140分鐘 花精女神全身嫩白紓壓+纖腿體雕SPA</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>$650</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>【Buty99】《高雄》160分鐘!迎夏搶纖瘦!完美手舞精雕曲線+極塑爆汗甩脂</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>$699</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>【Buty99】《新北》150分鐘!夏季SPA全攻略 全身淨白紓壓美身+逆天美腿精塑雕課程</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>$699</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】(外帶)羅浮典藏Rainbow Collection (2盒) 即享券</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>$5,245</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】(外帶)邱比特獻禮7-Star Collection (2盒) 即享券</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>$4,365</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】(外帶)邱比特獻禮7-Star Collection 即享券</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>$2,232</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】(外帶)童享皮克斯系列Disney Pixar Fest Collection (2盒) 即享券</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>$2,957</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】(外帶)勝利凱獻Luxury Classic (2盒) 即享券</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>$2,253</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>【Buty99】《台中》專屬男性熱蠟除毛 拒當聞腋少年/告別毛手毛腳</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>$699</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>【iCarry】小茶栽堂 藏金禮盒即享券(輸入序號即可宅配到府)</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>$1,090</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>【iCarry】大甲師 芋頭流芯酥(6入)即享券(輸入序號即可宅配到府)</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>$400</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>【iCarry】阿聰師 小芋仔(6入)即享券(輸入序號即可宅配到府)</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>$360</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>【iCarry】阿聰師 小芋仔禮盒(2盒/組)即享券(輸入序號即可宅配到府)</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>$720</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>【Buty99】《台北》男女適用!飯店式服務SPA BDR逆時魔力舒活臉部課程</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>$699</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>【Buty99】《台中》180分鐘！香氛精油樂活舒壓＋精雕四大曲線美體SPA</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>$750</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>【Buty99】《台北》120分鐘滿時數!頂級doTERRA奢華寵愛極致窈窕美體饗宴</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>$799</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>【Buty99】《台中》專屬男性熱蠟除毛 私密處不留痕跡</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>$999</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>【Buty99】《嘉義》150分鐘!歐洲植物精萃!客製精油全身舒眠按摩+毛孔速淨緊緻Q彈美肌</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>$588</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>【Buty99】《台北》不限男女!!無瑕美肌新技術!!最新韓潮-液態皮秒黑蜂潮喚膚+冰火射頻毛孔隱形</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>$599</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>【Buty99】《台中》160分鐘！迎夏獻禮 全身舒壓嫩白美體+深層燃脂精雕SPA</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>$699</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>【Buty99】《台北》220分鐘!葡萄柚精油極效燃脂按摩+曲線雕塑瘦身課程</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>$699</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>【Buty99】《台北》美肌10效喚醒膠原!韓國無創線雕小臉+零毛孔無針水光微雕術</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>$599</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>【Buty99】《台北》120分鐘!孕媽咪好孕時光!寵愛孕婦SPA全身舒壓放鬆之旅</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>$799</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>【Buty99】《台北》200分鐘!全手技草本深層溫熱紓壓+液態皮秒提亮美肌</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>$750</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>【Buty99】《北部》幸福好孕 法國頂級奢華孕婦SPA舒壓之旅</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>$1,099</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>【Buty99】《台南》140分鐘滿時數!全身香氛精油按摩+岩盤浴暖SPA</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>$750</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>【iCarry】海邊走走 花生愛餡蛋捲單盒即享券(輸入序號即可宅配到府)</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>$600</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>【iCarry】阿聰師 大甲芋頭酥綜合禮盒(9入)即享券(輸入序號即可宅配到府)</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>$450</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>【iCarry】法布甜 法式三色鳳梨酥(8入)(2盒/組)即享券(輸入序號即可宅配到府)</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>$1,160</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>【Buty99】《中南部》海灘女神就是妳!夏日刪毛嫩白</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>$799</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>【Buty99】《台北》150分鐘精油雙后!薰衣草ｘ玫瑰精油 全身舒壓享SO+雙機體雕</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>$699</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】(高5吋)愛，擁豹冰淇淋蛋糕即享券</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>$1,976</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】(10吋)融情巧克力冰淇淋蛋糕即享券</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>$2,736</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】(5吋)COOL夏唐老鴨冰淇淋蛋糕即享券</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>$1,786</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】(7吋)Olfa冰淇淋蛋糕即享券</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>$2,261</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】(7吋)暖暖陽光冰淇淋蛋糕即享券</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>$2,166</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】(內用)巧戀蘭姆葡萄冰淇淋凍飲即享券</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>$295</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】(內用)夏威夷風情冰淇淋凍飲即享券</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>$295</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】(內用)西瓜美莓冰淇淋凍飲即享券</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>$295</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】10英吋冰淇淋蛋糕任選(一桿進洞/愛麗絲夢遊仙境/Olfa) 喜客券</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>$2,880</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】COOL夏唐老鴨 七英吋冰淇淋蛋糕 喜客券</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>$2,380</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】七英吋冰淇淋蛋糕任選(融情巧克力/一桿進洞) 喜客券</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>$2,280</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】七英吋冰淇淋蛋糕任選(頑皮小玉/玫瑰花園) 喜客券</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>$2,480</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】西瓜草莓黑烏龍(內用) 喜客券</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>$325</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】芒果西瓜巴菲(內用) 喜客券</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>$325</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】寵愛自由配 單球冰淇淋8入(外帶) 喜客券</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>$999</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】寵愛自由配 雪糕10入(外帶) 喜客券</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>$999</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】冰淇淋馬卡龍禮盒(外帶) 喜客券</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>$1,480</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】內用$149經典咖啡 喜客券</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>$149</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】蒙地卡羅(內用) 喜客券</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>$325</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】奇異夢想(內用) 喜客券</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>$325</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>【Häagen-Dazs哈根達斯】單球冰淇淋(內用) 喜客券</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>$160</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>【八月堂】現金抵用券100元(票價為單張價格，最低購買5張)</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>$100</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>【八月堂】現金抵用券100元(票價為單張價格，最低購買3張)</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>$100</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>【了凡】香烤排骨飯 喜客券</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>$180</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>【了凡】招牌米其林油雞+香烤排骨飯 喜客券</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>$190</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>【了凡】招牌米其林油雞+蜜醬叉燒飯 喜客券</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>$180</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>【了凡】招牌米其林油雞腿飯 喜客券</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>$160</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>【了凡】蔥油雞飯 喜客券</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>$145</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>【了凡】米其林雙雞飯 喜客券</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>$190</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>【八月堂】現金抵用券300元(票價為單張價格，最低購買2張)</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>$300</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>【八月堂】62元可頌即享券</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>$62</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>【八月堂】59元可頌即享券</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>$59</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>【八月堂】55元可頌即享券</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>$55</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>【聖保羅】 松子Q餅5入禮盒 喜客券</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>$275</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>【聖保羅】 松子Q餅12入禮盒 喜客券</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>$660</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>10.0%</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>【Buty99】《台北》110分鐘！經典療癒SPA 天使超模舒壓纖體抗脂課程,共2次</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>$850</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>【Buty99】《彰化》180分鐘!極致誘惑曲線!全身代謝完美精雕蠻腰緊緻美腿</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>$699</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>【Buty99】《北部》150分鐘！十大系統精油全身深層舒壓＋精雕曲線美體</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>$850</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>【Buty99】《台北》頂級雙人SPA全身太極SPA按摩+臉部海藻淨痘課程</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>$1,288</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>【Buty99】《北部》150分鐘 迷迭香減壓舒眠+輕盈嫩白纖體</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>$650</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>【Buty99】《台北》170分鐘 全身精油純手技深層按壓+臉部魔提緊緻拉提</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>$650</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>【Buty99】《台北》150分鐘 全身深層手感舒壓+魔塑精雕甩脂</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>$699</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>【Buty99】《北部》110分鐘 雕塑秘帖首選SPA 天使超模瘦嫩白窈窕課程,共2次</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>$699</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>【Buty99】《台中》160分鐘 頂級皇家精油按摩＋雙機狂雕四大曲線</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>$750</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>【Buty99】《北中南》150分鐘 激瘦韓系女神 完美纖盈精雕臀腿小蠻腰課程</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>$650</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>【Buty99】《北部》130分鐘 古印度香氛之旅 全身全手技阿育吠陀精油按摩SPA</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>$850</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>【Buty99】《高雄》100分鐘滿時數!全身純手技舒壓推脂+纖腰岩盤美浴,共2次</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>$699</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>【Buty99】《台中》身呼吸心釋放!情緒舒暢精油全身舒壓美體+臉部好氣色SPA,180分鐘</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>$699</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>【Buty99】《北部》200分鐘 女神改造計畫!全身手雕按摩+擊脂激SO體雕課程</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>$699</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>【Buty99】《北南部》北南部 140分鐘!全身舒暢手技輕盈增肌減脂課程,共2次</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>$888</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>8.0%</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>[限時8%回饋]【雲朗觀光】600元住宿即享券 (一次抵用型；一次限用一張)</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>$600</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>【寬心園】 $396主餐乙份(單點) 喜客券</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>$396</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>【寬心園】 $418主餐乙份(單點) 喜客券</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>$418</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>【品川蘭】 京醬豬肉絲附斤餅 喜客券</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>$140</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>【品川蘭】 斤餅牛肉捲 喜客券</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>$160</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>【品川蘭】 滿漢三寶牛肉麵 喜客券</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>$280</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>【伯朗咖啡館】 伯朗嚴選咖啡豆(440g) 喜客券</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>$410</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>【伯朗咖啡館】 大濾掛 喜客券</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>$220</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>【伯朗咖啡館】 抹茶法樂皮(大杯) 喜客券</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>$140</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>【伯朗咖啡館】 巧克力(大杯) 喜客券</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>$130</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>【伯朗咖啡館】 抹茶牛奶(大杯) 喜客券</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>$130</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>【伯朗咖啡館】 花式摩卡(大杯) 喜客券</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>$140</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>【伯朗咖啡館】 榛果拿鐵(大杯) 喜客券</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>$140</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>【伯朗咖啡館】 摩卡可可碎片法樂皮(大杯) 喜客券</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>$140</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>【伯朗咖啡館】 抹茶拿鐵(大杯) 喜客券</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>$145</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>【伯朗咖啡館】 伯朗咖啡館 魔力冰淇淋(大杯) 喜客券</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>$140</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>【伯朗咖啡館】 美式咖啡(大杯) 喜客券</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>$110</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>【西雅圖極品咖啡】 熱巧克力牛奶咖啡(中杯) 喜客券</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>$130</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>【西雅圖極品咖啡】 冰巧克力牛奶咖啡(中杯) 喜客券</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>$130</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>【西雅圖極品咖啡】 冰娜蒂諾(中杯) 喜客券</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>$130</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>【西雅圖極品咖啡】 熱娜蒂諾(中杯) 喜客券</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>$130</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>【西雅圖極品咖啡】 熱卡布奇諾(中杯) 喜客券</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>$120</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>【西雅圖極品咖啡】 冰卡布奇諾(中杯) 喜客券</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>$120</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>【西雅圖極品咖啡】 熱拿鐵咖啡(中杯) 喜客券</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>$120</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>【西雅圖極品咖啡】 冰拿鐵咖啡(中杯) 喜客券</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>$120</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>【西雅圖極品咖啡】 巧酥咖啡冰沙(大杯) 喜客券</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>$140</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>【西雅圖極品咖啡】 咖啡冰沙(大杯) 喜客券</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>$130</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>【艾波索】 巧克力黑金磚切片+冷泡茶 喜客券</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>$129</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>【艾波索】 無限乳酪切片+冷泡茶 喜客券</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>$129</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>【艾波索】 比利時巧克力乳酪切片+冷泡茶 喜客券</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>$139</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>【艾波索】 楓糖千層蛋糕切片+冷泡茶 喜客券</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>$139</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>【艾波索】 香檸蘋果蛋糕切片+冷泡茶 喜客券</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>$129</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>【艾波索】 香檸蘋果蛋糕切片+冷泡茶 喜客券</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>$129</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>【艾波索】 檸檬派切片+冷泡茶 喜客券</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>$129</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>【艾波索】 極光醇黑巧克力蛋糕切片+冷泡茶 喜客券</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>$149</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>【艾波索】 無限乳酪切片+拿鐵咖啡 喜客券</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>$159</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>【艾波索】 楓糖千層蛋糕切片+拿鐵咖啡 喜客券</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>$169</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>【艾波索】 香檸蘋果蛋糕切片+拿鐵咖啡 喜客券</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>$159</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>【艾波索】 檸檬派切片+拿鐵咖啡 喜客券</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>$159</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>【艾波索】 牛奶千層冰心泡芙2入 喜客券</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>$99</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>【聖保羅】 綜合牛軋糖經濟包 喜客券</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>$120</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>【聖保羅】 費南雪 喜客券</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>$35</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>【聖保羅】 伯爵布丁 喜客券</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>$50</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>【Buty99】《北中南》200分鐘 古印度深層舒壓+魔塑修身課程</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>$699</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>【聖保羅】 可麗露 喜客券</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>$45</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>【聖保羅】 檸檬瑪德蓮 喜客券</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>$35</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>5.0%</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>【Buty99】《高雄》150分鐘 奢寵精油全身純手技按摩+超激瘦擊脂精雕</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>$699</t>
         </is>
       </c>
     </row>
